--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/20/seed2/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.472</v>
+        <v>6.127000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -628,7 +628,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.157999999999999</v>
+        <v>5.546000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.262</v>
+        <v>-8.116999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -656,7 +656,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.702</v>
+        <v>5.13</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -726,13 +726,13 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>8.975999999999999</v>
+        <v>9.163</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.16</v>
+        <v>-8.15</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.378</v>
+        <v>-8.256</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.666</v>
+        <v>8.305000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-6.774000000000001</v>
+        <v>-6.969000000000001</v>
       </c>
     </row>
     <row r="25">
@@ -782,7 +782,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.474</v>
+        <v>5.976999999999999</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.316</v>
+        <v>4.99</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.052</v>
+        <v>-7.766</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.052</v>
+        <v>-7.837999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -838,7 +838,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.473999999999999</v>
+        <v>5.519</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.931999999999999</v>
+        <v>-7.638000000000001</v>
       </c>
     </row>
     <row r="37">
@@ -984,7 +984,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.436</v>
+        <v>-7.638000000000001</v>
       </c>
     </row>
     <row r="40">
@@ -992,7 +992,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.334</v>
+        <v>9.196</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1068,7 +1068,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.046000000000001</v>
+        <v>-7.348000000000001</v>
       </c>
     </row>
     <row r="46">
@@ -1110,7 +1110,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-6.99</v>
+        <v>-7.572</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.052</v>
+        <v>-8.059999999999999</v>
       </c>
     </row>
     <row r="50">
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.472</v>
+        <v>-8.295000000000002</v>
       </c>
     </row>
     <row r="53">
@@ -1174,13 +1174,13 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>6.23</v>
+        <v>6.197</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-8.602</v>
+        <v>-8.343999999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.459999999999999</v>
+        <v>-8.210000000000001</v>
       </c>
     </row>
     <row r="55">
@@ -1230,13 +1230,13 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.638</v>
+        <v>5</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.625999999999999</v>
+        <v>-7.943000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1258,7 +1258,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.608000000000001</v>
+        <v>5.053000000000001</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1342,7 +1342,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.22</v>
+        <v>6.022</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.218</v>
+        <v>5.411</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1418,7 +1418,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.81</v>
+        <v>-7.214</v>
       </c>
     </row>
     <row r="71">
@@ -1432,7 +1432,7 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-6.808</v>
+        <v>-6.698</v>
       </c>
     </row>
     <row r="72">
@@ -1538,7 +1538,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.5</v>
+        <v>5.893000000000001</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.122000000000001</v>
+        <v>5.337</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.614000000000001</v>
+        <v>-8.252000000000001</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.039999999999999</v>
+        <v>-8.178999999999998</v>
       </c>
     </row>
     <row r="88">
@@ -1684,7 +1684,7 @@
         <v>-14.65</v>
       </c>
       <c r="D89" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.051000000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>6.472</v>
+        <v>5.601000000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.344</v>
+        <v>5.337999999999999</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>5.803999999999999</v>
+        <v>5.992</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.822</v>
+        <v>-8.119</v>
       </c>
     </row>
     <row r="102">
@@ -1874,7 +1874,7 @@
         <v>-21.66</v>
       </c>
       <c r="B103" t="n">
-        <v>5.546000000000001</v>
+        <v>5.266999999999999</v>
       </c>
       <c r="C103" t="n">
         <v>-14.32</v>
